--- a/Keyboard/A52GL/2_Assemble_PCBA/A52GL_order_details.xlsx
+++ b/Keyboard/A52GL/2_Assemble_PCBA/A52GL_order_details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Salicylic_acid3\Documents\自キ設計_パブリック\GL516_Exemple\Keyboard\A52GL\2_Assemble_PCBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20816902-CF67-404C-9D74-326F62BAFB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C984DC2-D3E3-490E-AD24-AB3480B56C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -2922,7 +2922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -5615,7 +5615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8753A18B-186A-41D1-AFEC-2561E7B29B61}">
   <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>

--- a/Keyboard/A52GL/2_Assemble_PCBA/A52GL_order_details.xlsx
+++ b/Keyboard/A52GL/2_Assemble_PCBA/A52GL_order_details.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Salicylic_acid3\Documents\自キ設計_パブリック\GL516_Exemple\Keyboard\A52GL\2_Assemble_PCBA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C984DC2-D3E3-490E-AD24-AB3480B56C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7C12BB-653B-4D01-90EE-4E5CBB08F779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8850" yWindow="4185" windowWidth="18645" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -1448,14 +1443,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="43454" t="46269" r="43019" b="44122"/>
+        <a:srcRect/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -1629,14 +1624,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="43454" t="46269" r="43019" b="44122"/>
+        <a:srcRect/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -1749,14 +1744,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="43454" t="46269" r="43019" b="44122"/>
+        <a:srcRect/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -1808,14 +1803,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="43454" t="46269" r="43019" b="44122"/>
+        <a:srcRect/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -1867,14 +1862,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="43454" t="46269" r="43019" b="44122"/>
+        <a:srcRect/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -1926,14 +1921,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="43454" t="46269" r="43019" b="44122"/>
+        <a:srcRect/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -2923,7 +2918,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5608,6 +5603,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
